--- a/資料/スケジュール/スケジュール表v0.231.xlsx
+++ b/資料/スケジュール/スケジュール表v0.231.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72DB7BF-2B92-46DD-8A33-664C1D1EE635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335A0FA-B685-47AE-BC8D-7D8A7D404863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5544" yWindow="1332" windowWidth="11520" windowHeight="12360" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
+    <workbookView xWindow="9048" yWindow="-384" windowWidth="11520" windowHeight="12360" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1433,7 +1433,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2219,7 +2219,9 @@
       <c r="G11" s="15">
         <v>1</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="15">
+        <v>1</v>
+      </c>
       <c r="I11" s="15"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>

--- a/資料/スケジュール/スケジュール表v0.231.xlsx
+++ b/資料/スケジュール/スケジュール表v0.231.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8335A0FA-B685-47AE-BC8D-7D8A7D404863}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46F3029-720C-4758-A4A2-D1F755E0ED66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9048" yWindow="-384" windowWidth="11520" windowHeight="12360" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
+    <workbookView xWindow="9048" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1433,7 +1433,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1448,7 +1448,7 @@
     <col min="30" max="40" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="70.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:40" ht="64.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="78" t="s">
         <v>22</v>
       </c>

--- a/資料/スケジュール/スケジュール表v0.231.xlsx
+++ b/資料/スケジュール/スケジュール表v0.231.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46F3029-720C-4758-A4A2-D1F755E0ED66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC2C71-8EEE-48C9-9488-3F8ACD2EC47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9048" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -831,13 +831,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,9 +1035,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,6 +1074,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1086,6 +1097,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,13 +1456,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADABA050-43EC-45CC-93BB-F04EC9F1950C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1474,7 +1503,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="31">
-        <f>IF((WEEKDAY(E2,16)-7)+(ROUNDUP(MOD(E30,5),0)-1)&gt;0,ROUNDUP(MOD(E30,5),0)+1,ROUNDUP(MOD(E30,5),0)-1)</f>
+        <f>IF((WEEKDAY(E2,16)-7)+(ROUNDUP(MOD(E33,5),0)-1)&gt;0,ROUNDUP(MOD(E33,5),0)+1,ROUNDUP(MOD(E33,5),0)-1)</f>
         <v>3</v>
       </c>
       <c r="F3" s="31"/>
@@ -1489,7 +1518,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="29">
-        <f>E2+(ROUNDDOWN(E30/5,0)*7)+E3</f>
+        <f>E2+(ROUNDDOWN(E33/5,0)*7)+E3</f>
         <v>44029</v>
       </c>
     </row>
@@ -1770,122 +1799,122 @@
       <c r="C7" s="38">
         <v>43998</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="64">
         <f>IF(C7="","",WORKDAY(C7,E7-1))</f>
         <v>43998</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="72">
         <f>IF(AND($C7&lt;=F$5,F$5&lt;=$D7),1,"")</f>
         <v>1</v>
       </c>
-      <c r="G7" s="74" t="str">
+      <c r="G7" s="73" t="str">
         <f>IF(AND($C7&lt;=G$5,G$5&lt;=$D7),1,"")</f>
         <v/>
       </c>
-      <c r="H7" s="74" t="str">
+      <c r="H7" s="73" t="str">
         <f t="shared" ref="H7:AN7" si="24">IF(AND($C7&lt;=H$5,H$5&lt;=$D7),1,"")</f>
         <v/>
       </c>
-      <c r="I7" s="74" t="str">
+      <c r="I7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="74" t="str">
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="M7" s="74" t="str">
+      <c r="M7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="N7" s="74" t="str">
+      <c r="N7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="O7" s="74" t="str">
+      <c r="O7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="P7" s="74" t="str">
+      <c r="P7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="74" t="str">
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="T7" s="74" t="str">
+      <c r="T7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="U7" s="74" t="str">
+      <c r="U7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="V7" s="74" t="str">
+      <c r="V7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="W7" s="74" t="str">
+      <c r="W7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="74" t="str">
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AA7" s="74" t="str">
+      <c r="AA7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AB7" s="74" t="str">
+      <c r="AB7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AC7" s="74" t="str">
+      <c r="AC7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AD7" s="74" t="str">
+      <c r="AD7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="74" t="str">
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AH7" s="74" t="str">
+      <c r="AH7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AI7" s="74" t="str">
+      <c r="AI7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AJ7" s="74" t="str">
+      <c r="AJ7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AK7" s="74" t="str">
+      <c r="AK7" s="73" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AL7" s="75" t="str">
+      <c r="AL7" s="74" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="AM7" s="75" t="str">
+      <c r="AM7" s="74" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
@@ -1898,9 +1927,9 @@
       <c r="A8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="66"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="40"/>
       <c r="F8" s="39"/>
       <c r="G8" s="15"/>
@@ -1946,7 +1975,7 @@
         <f>IF(D7="","",WORKDAY(D7,1))</f>
         <v>43999</v>
       </c>
-      <c r="D9" s="66">
+      <c r="D9" s="65">
         <f>IF(C9="","",WORKDAY(C9,E9-1))</f>
         <v>43998</v>
       </c>
@@ -1954,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="36" t="str">
-        <f t="shared" ref="F9:U24" si="25">IF(AND($C9&lt;=F$5,F$5&lt;=$D9),1,"")</f>
+        <f t="shared" ref="F9:U27" si="25">IF(AND($C9&lt;=F$5,F$5&lt;=$D9),1,"")</f>
         <v/>
       </c>
       <c r="G9" s="15" t="str">
@@ -2006,7 +2035,7 @@
         <v/>
       </c>
       <c r="V9" s="15" t="str">
-        <f t="shared" ref="V9:AK28" si="26">IF(AND($C9&lt;=V$5,V$5&lt;=$D9),1,"")</f>
+        <f t="shared" ref="V9:AK31" si="26">IF(AND($C9&lt;=V$5,V$5&lt;=$D9),1,"")</f>
         <v/>
       </c>
       <c r="W9" s="15" t="str">
@@ -2058,7 +2087,7 @@
         <v/>
       </c>
       <c r="AL9" s="25" t="str">
-        <f t="shared" ref="AL9:AN28" si="27">IF(AND($C9&lt;=AL$5,AL$5&lt;=$D9),1,"")</f>
+        <f t="shared" ref="AL9:AN31" si="27">IF(AND($C9&lt;=AL$5,AL$5&lt;=$D9),1,"")</f>
         <v/>
       </c>
       <c r="AM9" s="25" t="str">
@@ -2078,8 +2107,8 @@
         <f>IF(D9="","",WORKDAY(D9,1))</f>
         <v>43999</v>
       </c>
-      <c r="D10" s="65">
-        <f t="shared" ref="D10:D18" si="28">IF(C10="","",WORKDAY(C10,E10-1))</f>
+      <c r="D10" s="64">
+        <f t="shared" ref="D10:D21" si="28">IF(C10="","",WORKDAY(C10,E10-1))</f>
         <v>44001</v>
       </c>
       <c r="E10" s="13">
@@ -2203,12 +2232,12 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="82"/>
-      <c r="C11" s="69">
+      <c r="B11" s="83"/>
+      <c r="C11" s="37">
         <v>43999</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71" t="str">
+      <c r="D11" s="65"/>
+      <c r="E11" s="40" t="str">
         <f>IF(OR(D11="",D11=""),"",D11-C11)</f>
         <v/>
       </c>
@@ -2257,18 +2286,18 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="84">
         <f>IF(D10="","",WORKDAY(D10,1))</f>
         <v>44004</v>
       </c>
-      <c r="D12" s="66">
+      <c r="D12" s="85">
         <f t="shared" si="28"/>
         <v>44004</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="86">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="str">
@@ -2382,147 +2411,62 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
-      <c r="B13" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="37">
-        <f t="shared" ref="C13:C28" si="29">IF(D12="","",WORKDAY(D12,1))</f>
-        <v>44005</v>
-      </c>
-      <c r="D13" s="66">
-        <f t="shared" si="28"/>
-        <v>44006</v>
-      </c>
-      <c r="E13" s="40">
-        <v>2</v>
-      </c>
-      <c r="F13" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M13" s="15">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="15">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
       <c r="Q13" s="25"/>
       <c r="R13" s="25"/>
-      <c r="S13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="T13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U13" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="V13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="W13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
       <c r="X13" s="25"/>
       <c r="Y13" s="25"/>
-      <c r="Z13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AA13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AB13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AC13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AD13" s="15"/>
       <c r="AE13" s="25"/>
       <c r="AF13" s="25"/>
-      <c r="AG13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AH13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AI13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AJ13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AK13" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="15"/>
       <c r="AL13" s="25"/>
       <c r="AM13" s="25"/>
-      <c r="AN13" s="40" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
+      <c r="AN13" s="40"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="37">
-        <f t="shared" si="29"/>
-        <v>44007</v>
-      </c>
-      <c r="D14" s="66">
+      <c r="B14" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="84">
+        <f>IF(D12="","",WORKDAY(D12,1))</f>
+        <v>44005</v>
+      </c>
+      <c r="D14" s="85">
         <f t="shared" si="28"/>
-        <v>44008</v>
-      </c>
-      <c r="E14" s="62">
+        <v>44006</v>
+      </c>
+      <c r="E14" s="86">
         <v>2</v>
       </c>
       <c r="F14" s="36" t="str">
@@ -2547,21 +2491,21 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="M14" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N14" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O14" s="15">
+      <c r="M14" s="15">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="P14" s="15">
+      <c r="N14" s="15">
         <f t="shared" si="25"/>
         <v>1</v>
+      </c>
+      <c r="O14" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P14" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
       </c>
       <c r="Q14" s="25"/>
       <c r="R14" s="25"/>
@@ -2636,148 +2580,65 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
-      <c r="B15" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="37">
-        <f t="shared" si="29"/>
-        <v>44011</v>
-      </c>
-      <c r="D15" s="66">
-        <f t="shared" si="28"/>
-        <v>44011</v>
-      </c>
-      <c r="E15" s="40">
+      <c r="B15" s="82"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15">
         <v>1</v>
       </c>
-      <c r="F15" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
+      <c r="I15" s="15"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="25"/>
-      <c r="S15" s="15">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="T15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U15" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="V15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="W15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
-      <c r="Z15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AA15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AB15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AC15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
       <c r="AE15" s="25"/>
       <c r="AF15" s="25"/>
-      <c r="AG15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AH15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AI15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AJ15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AK15" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
       <c r="AL15" s="25"/>
       <c r="AM15" s="25"/>
-      <c r="AN15" s="40" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
+      <c r="AN15" s="40"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="37">
-        <f t="shared" si="29"/>
-        <v>44012</v>
-      </c>
-      <c r="D16" s="66">
+      <c r="B16" s="81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="84">
+        <f>IF(D14="","",WORKDAY(D14,1))</f>
+        <v>44007</v>
+      </c>
+      <c r="D16" s="85">
         <f t="shared" si="28"/>
-        <v>44012</v>
-      </c>
-      <c r="E16" s="40">
-        <v>1</v>
+        <v>44008</v>
+      </c>
+      <c r="E16" s="87">
+        <v>2</v>
       </c>
       <c r="F16" s="36" t="str">
         <f t="shared" si="25"/>
@@ -2809,13 +2670,13 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="O16" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P16" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
+      <c r="O16" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
@@ -2823,9 +2684,9 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="T16" s="15">
-        <f t="shared" si="25"/>
-        <v>1</v>
+      <c r="T16" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
       </c>
       <c r="U16" s="15" t="str">
         <f t="shared" si="25"/>
@@ -2890,321 +2751,314 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="37">
-        <f t="shared" si="29"/>
-        <v>44013</v>
-      </c>
-      <c r="D17" s="66">
-        <f t="shared" si="28"/>
-        <v>44013</v>
-      </c>
-      <c r="E17" s="40">
-        <v>1</v>
-      </c>
-      <c r="F17" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
+      <c r="B17" s="82"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
-      <c r="S17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="T17" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U17" s="15">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="V17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="W17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
       <c r="X17" s="25"/>
       <c r="Y17" s="25"/>
-      <c r="Z17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AA17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AB17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AC17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
       <c r="AE17" s="25"/>
       <c r="AF17" s="25"/>
-      <c r="AG17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AH17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AI17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AJ17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AK17" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
       <c r="AL17" s="25"/>
       <c r="AM17" s="25"/>
-      <c r="AN17" s="40" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
+      <c r="AN17" s="40"/>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="37">
-        <f t="shared" si="29"/>
-        <v>44014</v>
-      </c>
-      <c r="D18" s="66">
+        <f>IF(D16="","",WORKDAY(D16,1))</f>
+        <v>44011</v>
+      </c>
+      <c r="D18" s="65">
         <f t="shared" si="28"/>
-        <v>44014</v>
+        <v>44011</v>
       </c>
       <c r="E18" s="40">
         <v>1</v>
       </c>
-      <c r="F18" s="16" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="T18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U18" s="17" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="V18" s="17">
-        <f t="shared" si="26"/>
+      <c r="F18" s="36" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="15">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="W18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AA18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AB18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AC18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AH18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AI18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AJ18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AK18" s="17" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="41" t="str">
+      <c r="T18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="U18" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="W18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AA18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AB18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AC18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AD18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AH18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AI18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AJ18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AK18" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="40" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
-      <c r="B19" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="63">
-        <f>SUBTOTAL(9,E9:E18)</f>
-        <v>12</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-      <c r="AK19" s="7"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="42"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="37">
+        <f t="shared" ref="C19:C31" si="29">IF(D18="","",WORKDAY(D18,1))</f>
+        <v>44012</v>
+      </c>
+      <c r="D19" s="65">
+        <f t="shared" si="28"/>
+        <v>44012</v>
+      </c>
+      <c r="E19" s="40">
+        <v>1</v>
+      </c>
+      <c r="F19" s="36" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="W19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AA19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AB19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AC19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AD19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AH19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AI19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AJ19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AK19" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A20" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>10</v>
+      <c r="A20" s="5"/>
+      <c r="B20" s="33" t="s">
+        <v>20</v>
       </c>
       <c r="C20" s="37">
-        <f>IF(D18="","",WORKDAY(D18,1))</f>
-        <v>44015</v>
-      </c>
-      <c r="D20" s="60">
-        <f t="shared" ref="D20:D28" si="30">IF(C20="","",WORKDAY(C20,E20-1))</f>
-        <v>44015</v>
+        <f t="shared" si="29"/>
+        <v>44013</v>
+      </c>
+      <c r="D20" s="65">
+        <f t="shared" si="28"/>
+        <v>44013</v>
       </c>
       <c r="E20" s="40">
         <v>1</v>
@@ -3257,17 +3111,17 @@
         <f t="shared" si="25"/>
         <v/>
       </c>
-      <c r="U20" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
+      <c r="U20" s="15">
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="V20" s="15" t="str">
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="W20" s="15">
-        <f t="shared" si="26"/>
-        <v>1</v>
+      <c r="W20" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
       </c>
       <c r="X20" s="25"/>
       <c r="Y20" s="25"/>
@@ -3323,269 +3177,191 @@
     <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="33" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C21" s="37">
         <f t="shared" si="29"/>
-        <v>44018</v>
-      </c>
-      <c r="D21" s="66">
-        <f t="shared" si="30"/>
-        <v>44018</v>
+        <v>44014</v>
+      </c>
+      <c r="D21" s="65">
+        <f t="shared" si="28"/>
+        <v>44014</v>
       </c>
       <c r="E21" s="40">
         <v>1</v>
       </c>
-      <c r="F21" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="T21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U21" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="V21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="W21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="15">
+      <c r="F21" s="16" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="U21" s="17" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V21" s="17">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AA21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AB21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AC21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AD21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AH21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AI21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AJ21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AK21" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25"/>
-      <c r="AN21" s="40" t="str">
+      <c r="W21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AA21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AB21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AC21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AD21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AE21" s="26"/>
+      <c r="AF21" s="26"/>
+      <c r="AG21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AH21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AI21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AJ21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AK21" s="17" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AL21" s="26"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="41" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A22" s="5"/>
-      <c r="B22" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="37">
-        <f t="shared" si="29"/>
-        <v>44019</v>
-      </c>
-      <c r="D22" s="66">
-        <f t="shared" si="30"/>
-        <v>44022</v>
-      </c>
-      <c r="E22" s="40">
-        <v>4</v>
-      </c>
-      <c r="F22" s="36" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="G22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="H22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="I22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="T22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="U22" s="15" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="V22" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="W22" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AA22" s="15">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AB22" s="15">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AC22" s="15">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AD22" s="15">
-        <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AH22" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AI22" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AJ22" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AK22" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="40" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
+      <c r="A22" s="10"/>
+      <c r="B22" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="62">
+        <f>SUBTOTAL(9,E9:E21)</f>
+        <v>12</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="7"/>
+      <c r="AH22" s="7"/>
+      <c r="AI22" s="7"/>
+      <c r="AJ22" s="7"/>
+      <c r="AK22" s="7"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="42"/>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A23" s="5"/>
-      <c r="B23" s="33" t="s">
-        <v>18</v>
+      <c r="A23" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>10</v>
       </c>
       <c r="C23" s="37">
-        <f t="shared" si="29"/>
-        <v>44025</v>
-      </c>
-      <c r="D23" s="66">
-        <f t="shared" si="30"/>
-        <v>44025</v>
+        <f>IF(D21="","",WORKDAY(D21,1))</f>
+        <v>44015</v>
+      </c>
+      <c r="D23" s="60">
+        <f t="shared" ref="D23:D31" si="30">IF(C23="","",WORKDAY(C23,E23-1))</f>
+        <v>44015</v>
       </c>
       <c r="E23" s="40">
         <v>1</v>
@@ -3646,9 +3422,9 @@
         <f t="shared" si="26"/>
         <v/>
       </c>
-      <c r="W23" s="15" t="str">
-        <f t="shared" si="26"/>
-        <v/>
+      <c r="W23" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="X23" s="25"/>
       <c r="Y23" s="25"/>
@@ -3674,9 +3450,9 @@
       </c>
       <c r="AE23" s="25"/>
       <c r="AF23" s="25"/>
-      <c r="AG23" s="15">
-        <f t="shared" si="26"/>
-        <v>1</v>
+      <c r="AG23" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
       </c>
       <c r="AH23" s="15" t="str">
         <f t="shared" si="26"/>
@@ -3704,15 +3480,15 @@
     <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="33" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C24" s="37">
         <f t="shared" si="29"/>
-        <v>44026</v>
-      </c>
-      <c r="D24" s="66">
+        <v>44018</v>
+      </c>
+      <c r="D24" s="65">
         <f t="shared" si="30"/>
-        <v>44026</v>
+        <v>44018</v>
       </c>
       <c r="E24" s="40">
         <v>1</v>
@@ -3766,55 +3542,55 @@
         <v/>
       </c>
       <c r="U24" s="15" t="str">
-        <f t="shared" ref="U24:AJ28" si="31">IF(AND($C24&lt;=U$5,U$5&lt;=$D24),1,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="V24" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W24" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X24" s="25"/>
       <c r="Y24" s="25"/>
-      <c r="Z24" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v/>
+      <c r="Z24" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="AA24" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB24" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC24" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD24" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE24" s="25"/>
       <c r="AF24" s="25"/>
       <c r="AG24" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AH24" s="15">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AH24" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
       </c>
       <c r="AI24" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AJ24" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AK24" s="15" t="str">
@@ -3829,168 +3605,246 @@
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
-      <c r="B25" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="63">
-        <f>SUBTOTAL(9,E20:E24)</f>
-        <v>8</v>
-      </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="47"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="48"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="37">
+        <f t="shared" si="29"/>
+        <v>44019</v>
+      </c>
+      <c r="D25" s="65">
+        <f t="shared" si="30"/>
+        <v>44022</v>
+      </c>
+      <c r="E25" s="40">
+        <v>4</v>
+      </c>
+      <c r="F25" s="36" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="G25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="H25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="I25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="T25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="U25" s="15" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="V25" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="W25" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AA25" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AB25" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AC25" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AH25" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AI25" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AJ25" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AK25" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A26" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>5</v>
+      <c r="A26" s="5"/>
+      <c r="B26" s="33" t="s">
+        <v>18</v>
       </c>
       <c r="C26" s="37">
-        <f>IF(D24="","",WORKDAY(D24,1))</f>
-        <v>44027</v>
-      </c>
-      <c r="D26" s="66">
+        <f t="shared" si="29"/>
+        <v>44025</v>
+      </c>
+      <c r="D26" s="65">
         <f t="shared" si="30"/>
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="E26" s="40">
         <v>1</v>
       </c>
       <c r="F26" s="36" t="str">
-        <f t="shared" ref="F26:U28" si="32">IF(AND($C26&lt;=F$5,F$5&lt;=$D26),1,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="G26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="H26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J26" s="25"/>
       <c r="K26" s="25"/>
       <c r="L26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
       <c r="S26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U26" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="V26" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W26" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA26" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB26" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC26" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD26" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE26" s="25"/>
       <c r="AF26" s="25"/>
-      <c r="AG26" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v/>
+      <c r="AG26" s="15">
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="AH26" s="15" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="AI26" s="15">
-        <f t="shared" si="31"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AI26" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
       </c>
       <c r="AJ26" s="15" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AK26" s="15" t="str">
@@ -4007,69 +3861,69 @@
     <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="33" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C27" s="37">
         <f t="shared" si="29"/>
-        <v>44028</v>
-      </c>
-      <c r="D27" s="66">
+        <v>44026</v>
+      </c>
+      <c r="D27" s="65">
         <f t="shared" si="30"/>
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="E27" s="40">
         <v>1</v>
       </c>
       <c r="F27" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="G27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="H27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
       <c r="S27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U27" s="15" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="U27:AJ31" si="31">IF(AND($C27&lt;=U$5,U$5&lt;=$D27),1,"")</f>
         <v/>
       </c>
       <c r="V27" s="15" t="str">
@@ -4108,17 +3962,17 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AH27" s="15" t="str">
+      <c r="AH27" s="15">
         <f t="shared" si="31"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AI27" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AJ27" s="15">
+      <c r="AJ27" s="15" t="str">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AK27" s="15" t="str">
         <f t="shared" si="26"/>
@@ -4132,209 +3986,515 @@
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A28" s="5"/>
-      <c r="B28" s="33" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="62">
+        <f>SUBTOTAL(9,E23:E27)</f>
+        <v>8</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="48"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A29" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="37">
+        <f>IF(D27="","",WORKDAY(D27,1))</f>
+        <v>44027</v>
+      </c>
+      <c r="D29" s="65">
+        <f t="shared" si="30"/>
+        <v>44027</v>
+      </c>
+      <c r="E29" s="40">
+        <v>1</v>
+      </c>
+      <c r="F29" s="36" t="str">
+        <f t="shared" ref="F29:U31" si="32">IF(AND($C29&lt;=F$5,F$5&lt;=$D29),1,"")</f>
+        <v/>
+      </c>
+      <c r="G29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="N29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="O29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="P29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="T29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="U29" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="V29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="W29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AB29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AC29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AD29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AH29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AI29" s="15">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AK29" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A30" s="5"/>
+      <c r="B30" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="37">
+        <f t="shared" si="29"/>
+        <v>44028</v>
+      </c>
+      <c r="D30" s="65">
+        <f t="shared" si="30"/>
+        <v>44028</v>
+      </c>
+      <c r="E30" s="40">
+        <v>1</v>
+      </c>
+      <c r="F30" s="36" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="N30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="O30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="P30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="T30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="U30" s="15" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="V30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="W30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AA30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AB30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AC30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AD30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AH30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AI30" s="15" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="AJ30" s="15">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="AK30" s="15" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="40" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A31" s="5"/>
+      <c r="B31" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C31" s="37">
         <f t="shared" si="29"/>
         <v>44029</v>
       </c>
-      <c r="D28" s="66">
+      <c r="D31" s="65">
         <f t="shared" si="30"/>
         <v>44029</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E31" s="40">
         <v>1</v>
       </c>
-      <c r="F28" s="36" t="str">
+      <c r="F31" s="36" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="G28" s="15" t="str">
+      <c r="G31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="H28" s="15" t="str">
+      <c r="H31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I28" s="15" t="str">
+      <c r="I31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="15" t="str">
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="M28" s="15" t="str">
+      <c r="M31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N28" s="15" t="str">
+      <c r="N31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="O28" s="15" t="str">
+      <c r="O31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P28" s="15" t="str">
+      <c r="P31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="15" t="str">
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="T28" s="15" t="str">
+      <c r="T31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="U28" s="15" t="str">
+      <c r="U31" s="15" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="V28" s="15" t="str">
+      <c r="V31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="W28" s="15" t="str">
+      <c r="W31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="15" t="str">
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AA28" s="15" t="str">
+      <c r="AA31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AB28" s="15" t="str">
+      <c r="AB31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AC28" s="15" t="str">
+      <c r="AC31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AD28" s="15" t="str">
+      <c r="AD31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="15" t="str">
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AH28" s="15" t="str">
+      <c r="AH31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AI28" s="15" t="str">
+      <c r="AI31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AJ28" s="15" t="str">
+      <c r="AJ31" s="15" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="AK28" s="15">
+      <c r="AK31" s="15">
         <f t="shared" si="26"/>
         <v>1</v>
       </c>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="40" t="str">
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="40" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="6"/>
-      <c r="B29" s="50" t="s">
+    <row r="32" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="6"/>
+      <c r="B32" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="68" t="str">
-        <f t="shared" ref="D29:D31" si="33">IF(C29="","",C29+E29-1)</f>
-        <v/>
-      </c>
-      <c r="E29" s="64">
-        <f>SUBTOTAL(9,E26:E28)</f>
+      <c r="C32" s="51"/>
+      <c r="D32" s="67" t="str">
+        <f t="shared" ref="D32:D34" si="33">IF(C32="","",C32+E32-1)</f>
+        <v/>
+      </c>
+      <c r="E32" s="63">
+        <f>SUBTOTAL(9,E29:E31)</f>
         <v>3</v>
       </c>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="53"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="53"/>
-      <c r="AA29" s="53"/>
-      <c r="AB29" s="53"/>
-      <c r="AC29" s="53"/>
-      <c r="AD29" s="53"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="53"/>
-      <c r="AK29" s="53"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="54"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="53"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="53"/>
+      <c r="AA32" s="53"/>
+      <c r="AB32" s="53"/>
+      <c r="AC32" s="53"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="58"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="53"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="58"/>
+      <c r="AM32" s="58"/>
+      <c r="AN32" s="54"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="B30" s="14" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B33" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14" t="str">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="E30">
-        <f>SUBTOTAL(9,E7:E29)</f>
+      <c r="E33">
+        <f>SUBTOTAL(9,E7:E32)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="str">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="D5:D6"/>
@@ -4342,17 +4502,17 @@
     <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L7:P18 S7:W18 Z7:AD18 AG7:AK18 AN7:AN18 AN20:AN24 AG20:AK24 Z20:AD24 S20:W24 L20:P24 F20:I24 F26:I28 L26:P28 S26:W28 Z26:AD28 AG26:AK28 AN26:AN28 F7:I18">
+  <conditionalFormatting sqref="L7:P21 S7:W21 Z7:AD21 AG7:AK21 AN7:AN21 AN23:AN27 AG23:AK27 Z23:AD27 S23:W27 L23:P27 F23:I27 F29:I31 L29:P31 S29:W31 Z29:AD31 AG29:AK31 AN29:AN31 F7:I21">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>IF(AND($C7&lt;=F$5,F$5&lt;=$D7),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:AN29">
+  <conditionalFormatting sqref="F5:AN32">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>IF(F$5=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:AN29">
+  <conditionalFormatting sqref="F7:AN32">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4360,7 +4520,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="E19" formulaRange="1"/>
+    <ignoredError sqref="E22" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/資料/スケジュール/スケジュール表v0.231.xlsx
+++ b/資料/スケジュール/スケジュール表v0.231.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC2C71-8EEE-48C9-9488-3F8ACD2EC47B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A41564-5967-4652-8642-96150B9B424B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
@@ -1077,6 +1077,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1092,35 +1113,338 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1458,11 +1782,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1478,13 +1802,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="64.2" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.45">
       <c r="C2" s="1"/>
@@ -1519,19 +1843,19 @@
       </c>
       <c r="E4" s="29">
         <f>E2+(ROUNDDOWN(E33/5,0)*7)+E3</f>
-        <v>44029</v>
+        <v>44036</v>
       </c>
     </row>
     <row r="5" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="9"/>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="83" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="19">
@@ -1647,9 +1971,9 @@
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="20" t="str">
         <f>TEXT(WEEKDAY(F5,1),"aaaa")</f>
         <v>火曜日</v>
@@ -2232,14 +2556,16 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="83"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="37">
         <v>43999</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="40" t="str">
-        <f>IF(OR(D11="",D11=""),"",D11-C11)</f>
-        <v/>
+      <c r="D11" s="65">
+        <v>44001</v>
+      </c>
+      <c r="E11" s="40">
+        <f>IF(OR(D11="",D11=""),"",D11-C11+1)</f>
+        <v>3</v>
       </c>
       <c r="F11" s="39" t="str">
         <f t="shared" si="25"/>
@@ -2251,7 +2577,9 @@
       <c r="H11" s="15">
         <v>1</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="15">
+        <v>1</v>
+      </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="15"/>
@@ -2289,15 +2617,15 @@
       <c r="B12" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="84">
+      <c r="C12" s="76">
         <f>IF(D10="","",WORKDAY(D10,1))</f>
         <v>44004</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="77">
         <f t="shared" si="28"/>
         <v>44004</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="78">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="str">
@@ -2414,13 +2742,24 @@
     <row r="13" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
       <c r="B13" s="82"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="68">
+        <v>44000</v>
+      </c>
+      <c r="D13" s="69">
+        <v>44001</v>
+      </c>
+      <c r="E13" s="40">
+        <f>IF(OR(D13="",D13=""),"",D13-C13+1)</f>
+        <v>2</v>
+      </c>
       <c r="F13" s="75"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="15"/>
@@ -2458,15 +2797,15 @@
       <c r="B14" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="84">
+      <c r="C14" s="76">
         <f>IF(D12="","",WORKDAY(D12,1))</f>
         <v>44005</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="77">
         <f t="shared" si="28"/>
         <v>44006</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="78">
         <v>2</v>
       </c>
       <c r="F14" s="36" t="str">
@@ -2583,7 +2922,9 @@
     <row r="15" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
       <c r="B15" s="82"/>
-      <c r="C15" s="68"/>
+      <c r="C15" s="68">
+        <v>44000</v>
+      </c>
       <c r="D15" s="69"/>
       <c r="E15" s="70"/>
       <c r="F15" s="75"/>
@@ -2591,7 +2932,9 @@
       <c r="H15" s="15">
         <v>1</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="15">
+        <v>1</v>
+      </c>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="15"/>
@@ -2629,15 +2972,15 @@
       <c r="B16" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="84">
+      <c r="C16" s="76">
         <f>IF(D14="","",WORKDAY(D14,1))</f>
         <v>44007</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="77">
         <f t="shared" si="28"/>
         <v>44008</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="79">
         <v>2</v>
       </c>
       <c r="F16" s="36" t="str">
@@ -2756,7 +3099,7 @@
       <c r="B17" s="82"/>
       <c r="C17" s="68"/>
       <c r="D17" s="69"/>
-      <c r="E17" s="88"/>
+      <c r="E17" s="80"/>
       <c r="F17" s="75"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -3310,7 +3653,7 @@
       <c r="D22" s="56"/>
       <c r="E22" s="62">
         <f>SUBTOTAL(9,E9:E21)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="7"/>
@@ -4476,7 +4819,7 @@
       </c>
       <c r="E33">
         <f>SUBTOTAL(9,E7:E32)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.45">
@@ -4503,18 +4846,21 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:P21 S7:W21 Z7:AD21 AG7:AK21 AN7:AN21 AN23:AN27 AG23:AK27 Z23:AD27 S23:W27 L23:P27 F23:I27 F29:I31 L29:P31 S29:W31 Z29:AD31 AG29:AK31 AN29:AN31 F7:I21">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>IF(AND($C7&lt;=F$5,F$5&lt;=$D7),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:AN32">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>IF(F$5=TODAY(),TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:AN32">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="F11:AN11 F13:AN13 F15:AN15 F17:AN17">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>IF(F$5=$D11,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
